--- a/biology/Biologie cellulaire et moléculaire/Maclyn_McCarty/Maclyn_McCarty.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Maclyn_McCarty/Maclyn_McCarty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maclyn McCarty, né le 9 juin 1911 à South Bend dans l'Indiana, mort le 2 janvier 2005, était un généticien américain. Il a passé sa vie à étudier les organismes des maladies infectieuses. Il est plus connu pour avoir participé à la découverte de l'ADN comme constituant chimique des gènes et non pas la protéine. La découverte des secrets moléculaires du gène en question, qui pour les polysaccharides encapsulés de la bactérie pneumococcique, ont permis d'étudier l'hérédité, non plus uniquement par la génétique mais également par la chimie, ce qui a induit le début de la chimie moléculaire. McCarty fut le plus jeune et celui ayant vécu le plus longtemps de l'équipe de recherche qui a permis cette découverte, connue sous le nom d'Expérience de Avery, MacLeod et McCarty. Maclyn McCarty est mort d'insuffisance cardiaque congestive.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maclyn McCarty est né en 1911 à South Bend, dans l'Indiana. Il est le second de quatre fils d'un responsable de filiale de Studebaker Corporation, à l'époque où ce n'était qu'une entreprise de transports par chariots attelés. Durant son adolescence, McCarty se fixa l'objectif de devenir physicien, et prépara une stratégie, couronnée de succès, pour préparer son admission à la faculté de médecine de l'université Johns-Hopkins.
 Ayant achevé un cycle prégradué, il rejoint l'université Stanford où il commence ses études dans les domaines naissants de la biochimie, travaillant avec James Murray Luck sur le taux de renouvellement de la protéine dans le foie.
@@ -556,7 +570,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Maclyn McCarty » (voir la liste des auteurs).</t>
         </is>
